--- a/G2_Acceptance.Ass1.xlsx
+++ b/G2_Acceptance.Ass1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ofir\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA8C5C6-1E7C-4855-8594-E4522EF3615C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4329700B-0C7A-487B-835B-3E253FFE0B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{EDEE8724-E9F5-4050-BB2B-F82A7E8EDFCB}"/>
+    <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EDEE8724-E9F5-4050-BB2B-F82A7E8EDFCB}"/>
   </bookViews>
   <sheets>
     <sheet name="hebrew" sheetId="1" r:id="rId1"/>
     <sheet name="english" sheetId="2" r:id="rId2"/>
+    <sheet name="tests" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="201">
   <si>
     <t>number</t>
   </si>
@@ -331,13 +332,386 @@
   </si>
   <si>
     <t>מה שנדרש בעבודה</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>ReserveSuccessValidTime</t>
+  </si>
+  <si>
+    <t>Open 'Reservation'. 
+Choose: today +1h15m,
+10 diners. 
+Click 'Order'.</t>
+  </si>
+  <si>
+    <t>Customer identified or provides contact info.
+The restaurant is open at the chosen time.</t>
+  </si>
+  <si>
+    <t>System created reservation for 2 hours; 
+capacity validated; confirmation code returned.</t>
+  </si>
+  <si>
+    <t>ReserveSuccessExactly1Hour</t>
+  </si>
+  <si>
+    <t>Open 'Reservation'. 
+Choose: today +1h,
+2 diners. 
+Click 'Order'.</t>
+  </si>
+  <si>
+    <t>Boundary check (≥1h).</t>
+  </si>
+  <si>
+    <t>ReserveFailLessThan1Hour</t>
+  </si>
+  <si>
+    <t>System send error message: "Reservations must be at least 1 hour in advance."</t>
+  </si>
+  <si>
+    <t>Business rule rejection.</t>
+  </si>
+  <si>
+    <t>ReserveEdgeExactly1Month</t>
+  </si>
+  <si>
+    <t>Open 'Reservation'. 
+Choose: today +45m,
+2 diners. 
+Click 'Order'.</t>
+  </si>
+  <si>
+    <t>Boundary check (≥1 month).</t>
+  </si>
+  <si>
+    <t>ReserveFailOver1Month</t>
+  </si>
+  <si>
+    <t>System send error message: "Reservations can be made up to 1 month ahead."</t>
+  </si>
+  <si>
+    <t>SuggestAlternativesReservation</t>
+  </si>
+  <si>
+    <t>System suggests the closest alternative times that fit:
+Friday 19:30, Friday 21:00</t>
+  </si>
+  <si>
+    <t>Customer identified or provides contact info.
+The restaurant is open at the chosen time.
+Schedule full at requested time.</t>
+  </si>
+  <si>
+    <t>System shows the two closest available time</t>
+  </si>
+  <si>
+    <t>ReserveCreates2hSlot</t>
+  </si>
+  <si>
+    <t>System blocks a 2‑hour window for this booking.</t>
+  </si>
+  <si>
+    <t>Customer identified or provides contact info.
+The restaurant is open at the chosen time.
+Table is available from 15:30 to 17:30</t>
+  </si>
+  <si>
+    <t>Duration rules</t>
+  </si>
+  <si>
+    <t>SendConfirmationCode</t>
+  </si>
+  <si>
+    <t>Reservation completed.
+Wait for confirmation code.</t>
+  </si>
+  <si>
+    <t>Confirmation code sent via Email and SMS.</t>
+  </si>
+  <si>
+    <t>Customer identified or provides contact info.
+The restaurant is open at the chosen time.
+Customer's info is on the data base.</t>
+  </si>
+  <si>
+    <t>Verify message contents and delivery log.</t>
+  </si>
+  <si>
+    <t>ReminderBeforeReservation</t>
+  </si>
+  <si>
+    <t>Open 'Reservation'. 
+Choose: today +2h30m,
+2 diners. 
+Click 'Order'.
+Wait 30m to the reminder.</t>
+  </si>
+  <si>
+    <t>Customer receives reminder 2hours before the time.</t>
+  </si>
+  <si>
+    <t>Customer identified or provides contact info.
+The restaurant is open at the chosen time.
+Notification service running.</t>
+  </si>
+  <si>
+    <t>Check both email and SMS content.</t>
+  </si>
+  <si>
+    <t>AutoCancelNoShow15m</t>
+  </si>
+  <si>
+    <t>Open 'Reservation'. 
+Choose: today +1h,
+2 diners. 
+Click 'Order'.
+Don't come.</t>
+  </si>
+  <si>
+    <t>System auto‑cancels reservation.</t>
+  </si>
+  <si>
+    <t>Customer identified or provides contact info.
+The restaurant is open at the chosen time.
+Seating system is working.</t>
+  </si>
+  <si>
+    <t>Ensure table not freed earlier than policy, but freed after 15m.</t>
+  </si>
+  <si>
+    <t>CustomerCancelAnytime</t>
+  </si>
+  <si>
+    <t>Reservation completed.
+Wait for confirmation code.
+Open 'Cancel'.
+Click 'Cancel'.</t>
+  </si>
+  <si>
+    <t>Reservation marked 'Canceled'
+Table freed.</t>
+  </si>
+  <si>
+    <t>Customer identified or provides contact info.
+The restaurant is open at the chosen time.
+Cancellation system is working.</t>
+  </si>
+  <si>
+    <t>Record cancellation time and reason.</t>
+  </si>
+  <si>
+    <t>TerminalCheckInWithCode</t>
+  </si>
+  <si>
+    <t>At the terminal, enter valid confirmation code at the reservation time.</t>
+  </si>
+  <si>
+    <t>Customer identifies and routed.
+Check in recorded.</t>
+  </si>
+  <si>
+    <t>Active reservation exists.</t>
+  </si>
+  <si>
+    <t>Walk‑up with code only.</t>
+  </si>
+  <si>
+    <t>TerminalLostCodeResend</t>
+  </si>
+  <si>
+    <t>At the terminal, click 'I lost my code'</t>
+  </si>
+  <si>
+    <t>Code resent by email/SMS
+ customer proceeds to check‑in.</t>
+  </si>
+  <si>
+    <t>Customer has a confirmed reservation.</t>
+  </si>
+  <si>
+    <t>Throttle resend attempts log event.</t>
+  </si>
+  <si>
+    <t>CheckInAndWait</t>
+  </si>
+  <si>
+    <t>Reservation completed.
+Arrive early.</t>
+  </si>
+  <si>
+    <t>System instructs to wait
+Notifies when suitable table frees.</t>
+  </si>
+  <si>
+    <t>Customer has a confirmed reservation.
+All the tables are full.</t>
+  </si>
+  <si>
+    <t>Early handling and notification.</t>
+  </si>
+  <si>
+    <t>BillingEndsFreesTable</t>
+  </si>
+  <si>
+    <t>Click 'Pay bill' less than 2 hours before reservation time.
+Complete payment.</t>
+  </si>
+  <si>
+    <t>Member discount (if any) applied.
+Table becomes free immediately.</t>
+  </si>
+  <si>
+    <t>Payment service active.
+Membership record optional.</t>
+  </si>
+  <si>
+    <t>Verify totals, discount rules, and free‑table timing.</t>
+  </si>
+  <si>
+    <t>Minimum 1h ahead
+ 2h duration
+Capacity-based (not a specific table).</t>
+  </si>
+  <si>
+    <t>Open 'Reservation'. 
+Choose: +1 month,
+4 diners. 
+Click 'Order'.</t>
+  </si>
+  <si>
+    <t>Open 'Reservation'. 
+Choose: +1 month and 1 day,
+3 diners. 
+Click 'Order'.</t>
+  </si>
+  <si>
+    <t>Open 'Reservation'. 
+Choose: next Friday, 20:00,
+8 diners. 
+Click 'Order'.</t>
+  </si>
+  <si>
+    <t>Open 'Reservation'. 
+Choose: tomorrow, 15:30,
+3 diners. 
+Click 'Order'.</t>
+  </si>
+  <si>
+    <t>ReportsAutoEndOfMonth</t>
+  </si>
+  <si>
+    <t>Advance system time to end of month
+run scheduled batch.</t>
+  </si>
+  <si>
+    <t>System automatically generates monthly reports.</t>
+  </si>
+  <si>
+    <t>Scheduler configured.</t>
+  </si>
+  <si>
+    <t>Store run timestamp and status.</t>
+  </si>
+  <si>
+    <t>Cross‑check a sample vs source events.</t>
+  </si>
+  <si>
+    <t>Historical visit data exists.</t>
+  </si>
+  <si>
+    <t>Shows arrival &amp; departure times with delays/overstay indicators.</t>
+  </si>
+  <si>
+    <t>Open 'Timing Report'.</t>
+  </si>
+  <si>
+    <t>ReportTimingArrivalsDepartures</t>
+  </si>
+  <si>
+    <t>Open 'Reservations &amp; Waitlists Report'.</t>
+  </si>
+  <si>
+    <t>Shows monthly reservations and waitlists data.</t>
+  </si>
+  <si>
+    <t>Separate counts by status (completed/canceled/no‑show).</t>
+  </si>
+  <si>
+    <t>ReportReservationsAndWaitlists</t>
+  </si>
+  <si>
+    <t>Reservation and waitlist data exist.</t>
+  </si>
+  <si>
+    <t>ReportsVisualGraphs</t>
+  </si>
+  <si>
+    <t>Inspect report UI.</t>
+  </si>
+  <si>
+    <t>Data is presented visually (graphs/charts).</t>
+  </si>
+  <si>
+    <t>Frontend charting available.</t>
+  </si>
+  <si>
+    <t>Reports Permissions ManagerView</t>
+  </si>
+  <si>
+    <t>Login as manager and open reports.
+ try as non‑manager.</t>
+  </si>
+  <si>
+    <t>Manager can view.
+ non‑manager is blocked/logged.</t>
+  </si>
+  <si>
+    <t>Manager and staff users exist.</t>
+  </si>
+  <si>
+    <t>Expect HTTP 403 / clear UI error for non‑manager.</t>
+  </si>
+  <si>
+    <t>Reports NoDataMonth</t>
+  </si>
+  <si>
+    <t>Pick a month with no reservations/visits.
+ run report.</t>
+  </si>
+  <si>
+    <t>Reports generated with empty‑state messaging.
+ no crash.</t>
+  </si>
+  <si>
+    <t>Data store has zero rows for that month.</t>
+  </si>
+  <si>
+    <t>UX for empty periods.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,8 +719,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +757,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -542,11 +928,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,6 +997,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -605,6 +1010,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -650,25 +1064,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1006,7 +1427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E130E30-9D60-4430-865A-90FCD796480D}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="B20" zoomScale="117" workbookViewId="0">
+    <sheetView topLeftCell="B14" zoomScale="117" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -1045,14 +1466,14 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
@@ -1064,10 +1485,10 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
+      <c r="D3" s="20"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -1079,7 +1500,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
@@ -1091,7 +1512,7 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -1103,7 +1524,7 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -1115,7 +1536,7 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -1127,7 +1548,7 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
@@ -1139,7 +1560,7 @@
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -1151,7 +1572,7 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="22" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1165,7 +1586,7 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -1177,7 +1598,7 @@
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
@@ -1189,7 +1610,7 @@
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -1201,12 +1622,12 @@
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="F14" s="20" t="s">
+      <c r="D14" s="23"/>
+      <c r="F14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -1218,10 +1639,10 @@
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="D15" s="23"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -1233,10 +1654,10 @@
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
+      <c r="D16" s="23"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
@@ -1248,10 +1669,10 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
+      <c r="D17" s="23"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
@@ -1263,7 +1684,7 @@
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
@@ -1275,7 +1696,7 @@
       <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -1287,7 +1708,7 @@
       <c r="C20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="39"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -1299,7 +1720,7 @@
       <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="39"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
@@ -1311,7 +1732,7 @@
       <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="39"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -1323,7 +1744,7 @@
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
@@ -1335,7 +1756,7 @@
       <c r="C24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -1347,7 +1768,7 @@
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
@@ -1359,7 +1780,7 @@
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
@@ -1371,10 +1792,10 @@
       <c r="C27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="18" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1388,7 +1809,7 @@
       <c r="C28" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="39"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="15">
@@ -1400,7 +1821,7 @@
       <c r="C29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="40"/>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
@@ -1412,7 +1833,7 @@
       <c r="C30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="22" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1426,7 +1847,7 @@
       <c r="C31" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="39"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
@@ -1438,7 +1859,7 @@
       <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="39"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
@@ -1450,7 +1871,7 @@
       <c r="C33" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="39"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="15">
@@ -1462,7 +1883,7 @@
       <c r="C34" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="40"/>
+      <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
@@ -1474,7 +1895,7 @@
       <c r="C35" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1488,7 +1909,7 @@
       <c r="C36" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="14">
@@ -1500,7 +1921,7 @@
       <c r="C37" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="39"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="14">
@@ -1512,7 +1933,7 @@
       <c r="C38" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="39"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="14">
@@ -1524,7 +1945,7 @@
       <c r="C39" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="39"/>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="14">
@@ -1536,7 +1957,7 @@
       <c r="C40" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="39"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="15">
@@ -1548,7 +1969,7 @@
       <c r="C41" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="40"/>
+      <c r="D41" s="24"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="13">
@@ -1560,7 +1981,7 @@
       <c r="C42" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1574,7 +1995,7 @@
       <c r="C43" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="14">
@@ -1586,7 +2007,7 @@
       <c r="C44" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="14">
@@ -1598,7 +2019,7 @@
       <c r="C45" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="15">
@@ -1610,7 +2031,7 @@
       <c r="C46" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="19"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="13">
@@ -1622,7 +2043,7 @@
       <c r="C47" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="19" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1636,7 +2057,7 @@
       <c r="C48" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="18"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="14">
@@ -1648,7 +2069,7 @@
       <c r="C49" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="18"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="15">
@@ -1660,7 +2081,7 @@
       <c r="C50" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="19"/>
+      <c r="D50" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1680,10 +2101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E330B36-702C-4776-813D-BCB474170735}">
-  <dimension ref="D1:I35"/>
+  <dimension ref="D1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1692,9 +2113,7 @@
     <col min="9" max="9" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I1" s="36"/>
-    </row>
+    <row r="1" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D2">
         <v>1</v>
@@ -1705,10 +2124,10 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="42"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D3">
@@ -1720,8 +2139,8 @@
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="I3" s="42"/>
+      <c r="G3" s="20"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D4">
@@ -1733,8 +2152,8 @@
       <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="I4" s="42"/>
+      <c r="G4" s="20"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D5">
@@ -1746,8 +2165,8 @@
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="I5" s="42"/>
+      <c r="G5" s="20"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D6">
@@ -1759,8 +2178,8 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="I6" s="42"/>
+      <c r="G6" s="20"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D7">
@@ -1772,8 +2191,8 @@
       <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="I7" s="42"/>
+      <c r="G7" s="20"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D8">
@@ -1785,8 +2204,8 @@
       <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="I8" s="42"/>
+      <c r="G8" s="20"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D9">
@@ -1798,8 +2217,8 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="I9" s="42"/>
+      <c r="G9" s="20"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D10">
@@ -1811,8 +2230,8 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="I10" s="42"/>
+      <c r="G10" s="20"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D11">
@@ -1824,8 +2243,8 @@
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="I11" s="42"/>
+      <c r="G11" s="20"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D12">
@@ -1837,8 +2256,8 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="I12" s="42"/>
+      <c r="G12" s="20"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D13">
@@ -1850,8 +2269,8 @@
       <c r="F13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="I13" s="42"/>
+      <c r="G13" s="20"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D14">
@@ -1863,8 +2282,8 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="I14" s="42"/>
+      <c r="G14" s="20"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D15">
@@ -1876,8 +2295,8 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="I15" s="42"/>
+      <c r="G15" s="20"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D16">
@@ -1889,21 +2308,21 @@
       <c r="F16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="I16" s="42"/>
+      <c r="G16" s="20"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D17">
         <v>16</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="17" t="s">
         <v>79</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="I17" s="42"/>
+      <c r="G17" s="20"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D18">
@@ -1915,8 +2334,8 @@
       <c r="F18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="I18" s="42"/>
+      <c r="G18" s="21"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D19">
@@ -1928,10 +2347,10 @@
       <c r="F19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="42"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D20">
@@ -1943,8 +2362,8 @@
       <c r="F20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="I20" s="42"/>
+      <c r="G20" s="20"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D21">
@@ -1956,8 +2375,8 @@
       <c r="F21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="I21" s="42"/>
+      <c r="G21" s="21"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D22">
@@ -1969,10 +2388,10 @@
       <c r="F22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="42"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23">
@@ -1984,8 +2403,8 @@
       <c r="F23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="I23" s="42"/>
+      <c r="G23" s="20"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D24">
@@ -1997,8 +2416,8 @@
       <c r="F24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="I24" s="42"/>
+      <c r="G24" s="20"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D25">
@@ -2010,8 +2429,8 @@
       <c r="F25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="I25" s="42"/>
+      <c r="G25" s="20"/>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D26">
@@ -2023,8 +2442,8 @@
       <c r="F26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="I26" s="37"/>
+      <c r="G26" s="21"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D27">
@@ -2036,10 +2455,10 @@
       <c r="F27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="37"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D28">
@@ -2051,34 +2470,34 @@
       <c r="F28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="I28" s="37"/>
+      <c r="G28" s="20"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D29">
         <v>28</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="17" t="s">
         <v>92</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="I29" s="37"/>
+      <c r="G29" s="20"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30">
         <v>29</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="17" t="s">
         <v>93</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="I30" s="37"/>
+      <c r="G30" s="20"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D31">
@@ -2090,8 +2509,8 @@
       <c r="F31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="I31" s="37"/>
+      <c r="G31" s="20"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D32">
@@ -2103,8 +2522,8 @@
       <c r="F32" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="I32" s="37"/>
+      <c r="G32" s="20"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D33">
@@ -2116,14 +2535,8 @@
       <c r="F33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="I33" s="37"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="I34" s="36"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="I35" s="36"/>
+      <c r="G33" s="21"/>
+      <c r="I33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2134,4 +2547,466 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77051B9-1FCE-466E-98C1-9A60B4B224EB}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.90625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="26.36328125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="30.1796875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="29" style="42" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="40">
+        <v>2</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="40">
+        <v>3</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="40">
+        <v>4</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="40">
+        <v>5</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="40">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="40">
+        <v>7</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="40">
+        <v>8</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="40">
+        <v>9</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="40">
+        <v>10</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="40">
+        <v>11</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="40">
+        <v>12</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="40">
+        <v>13</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="40">
+        <v>14</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="44">
+        <v>15</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="44">
+        <v>16</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="44">
+        <v>17</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="44">
+        <v>18</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="45">
+        <v>19</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" s="48"/>
+    </row>
+    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="45">
+        <v>20</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="45">
+        <v>21</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>